--- a/plots/cleaned_stemed_ignored_1000.xlsx
+++ b/plots/cleaned_stemed_ignored_1000.xlsx
@@ -583,9 +583,6 @@
     <t>adress</t>
   </si>
   <si>
-    <t>bient√¥t</t>
-  </si>
-  <si>
     <t>chaqu</t>
   </si>
   <si>
@@ -1012,9 +1009,6 @@
     <t>nom</t>
   </si>
   <si>
-    <t>p√¥l</t>
-  </si>
-  <si>
     <t>souten</t>
   </si>
   <si>
@@ -1183,9 +1177,6 @@
     <t>coucou</t>
   </si>
   <si>
-    <t>dipl√¥m</t>
-  </si>
-  <si>
     <t>dossi</t>
   </si>
   <si>
@@ -1309,9 +1300,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>c√¥t</t>
-  </si>
-  <si>
     <t>ecocup</t>
   </si>
   <si>
@@ -1591,9 +1579,6 @@
     <t>rapid</t>
   </si>
   <si>
-    <t>r√¥l</t>
-  </si>
-  <si>
     <t>sinon</t>
   </si>
   <si>
@@ -2002,9 +1987,6 @@
     <t>permanent</t>
   </si>
   <si>
-    <t>plut√¥t</t>
-  </si>
-  <si>
     <t>saucisson</t>
   </si>
   <si>
@@ -2497,9 +2479,6 @@
     <t>top</t>
   </si>
   <si>
-    <t>t√¥t</t>
-  </si>
-  <si>
     <t>trail</t>
   </si>
   <si>
@@ -2872,9 +2851,6 @@
     <t>médian</t>
   </si>
   <si>
-    <t>dép√¥t</t>
-  </si>
-  <si>
     <t>extérieur</t>
   </si>
   <si>
@@ -3050,6 +3026,30 @@
   </si>
   <si>
     <t>voilà</t>
+  </si>
+  <si>
+    <t>bientôt</t>
+  </si>
+  <si>
+    <t>pôl</t>
+  </si>
+  <si>
+    <t>diplôm</t>
+  </si>
+  <si>
+    <t>côt</t>
+  </si>
+  <si>
+    <t>dépôt</t>
+  </si>
+  <si>
+    <t>rôl</t>
+  </si>
+  <si>
+    <t>plutôt</t>
+  </si>
+  <si>
+    <t>tôt</t>
   </si>
 </sst>
 </file>
@@ -3065,12 +3065,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3085,8 +3091,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3370,8 +3377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="G88" sqref="G88"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C248" sqref="C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3501,7 +3508,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B16">
@@ -3526,7 +3533,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="B19">
         <v>111</v>
@@ -3534,7 +3541,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="B20">
         <v>109</v>
@@ -3558,7 +3565,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="B23">
         <v>107</v>
@@ -3590,7 +3597,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="B27">
         <v>96</v>
@@ -3614,7 +3621,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="B30">
         <v>90</v>
@@ -3622,7 +3629,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="B31">
         <v>90</v>
@@ -3814,7 +3821,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="B55">
         <v>70</v>
@@ -3870,7 +3877,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="B62">
         <v>68</v>
@@ -4006,7 +4013,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="B79">
         <v>62</v>
@@ -4014,7 +4021,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="B80">
         <v>62</v>
@@ -4270,7 +4277,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="B112">
         <v>50</v>
@@ -4662,7 +4669,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="B161">
         <v>39</v>
@@ -4750,7 +4757,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="B172">
         <v>38</v>
@@ -4798,7 +4805,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="B178">
         <v>37</v>
@@ -4806,7 +4813,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B179">
         <v>37</v>
@@ -4926,7 +4933,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>179</v>
+        <v>994</v>
       </c>
       <c r="B194">
         <v>34</v>
@@ -4934,7 +4941,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B195">
         <v>34</v>
@@ -4942,7 +4949,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B196">
         <v>34</v>
@@ -4950,7 +4957,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B197">
         <v>34</v>
@@ -4958,7 +4965,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B198">
         <v>34</v>
@@ -4966,7 +4973,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B199">
         <v>34</v>
@@ -4974,7 +4981,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="B200">
         <v>34</v>
@@ -4982,7 +4989,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B201">
         <v>33</v>
@@ -4990,7 +4997,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B202">
         <v>33</v>
@@ -4998,7 +5005,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B203">
         <v>33</v>
@@ -5006,7 +5013,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B204">
         <v>33</v>
@@ -5014,7 +5021,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B205">
         <v>33</v>
@@ -5022,7 +5029,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B206">
         <v>33</v>
@@ -5030,7 +5037,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B207">
         <v>33</v>
@@ -5038,7 +5045,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B208">
         <v>33</v>
@@ -5046,7 +5053,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="B209">
         <v>33</v>
@@ -5054,7 +5061,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B210">
         <v>33</v>
@@ -5062,7 +5069,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B211">
         <v>33</v>
@@ -5070,7 +5077,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B212">
         <v>32</v>
@@ -5078,7 +5085,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="B213">
         <v>32</v>
@@ -5086,7 +5093,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B214">
         <v>32</v>
@@ -5094,7 +5101,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B215">
         <v>32</v>
@@ -5102,7 +5109,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B216">
         <v>32</v>
@@ -5110,7 +5117,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B217">
         <v>31</v>
@@ -5118,7 +5125,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B218">
         <v>31</v>
@@ -5126,7 +5133,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B219">
         <v>31</v>
@@ -5134,7 +5141,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B220">
         <v>31</v>
@@ -5142,7 +5149,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B221">
         <v>31</v>
@@ -5150,7 +5157,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="B222">
         <v>31</v>
@@ -5158,7 +5165,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="B223">
         <v>31</v>
@@ -5166,7 +5173,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B224">
         <v>31</v>
@@ -5174,7 +5181,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B225">
         <v>31</v>
@@ -5182,7 +5189,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B226">
         <v>31</v>
@@ -5190,7 +5197,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B227">
         <v>31</v>
@@ -5198,7 +5205,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B228">
         <v>30</v>
@@ -5206,7 +5213,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B229">
         <v>30</v>
@@ -5214,7 +5221,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B230">
         <v>30</v>
@@ -5222,7 +5229,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B231">
         <v>30</v>
@@ -5230,7 +5237,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B232">
         <v>29</v>
@@ -5238,7 +5245,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="B233">
         <v>29</v>
@@ -5246,7 +5253,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="B234">
         <v>29</v>
@@ -5254,7 +5261,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B235">
         <v>29</v>
@@ -5262,7 +5269,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B236">
         <v>29</v>
@@ -5270,7 +5277,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B237">
         <v>29</v>
@@ -5278,7 +5285,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B238">
         <v>29</v>
@@ -5286,7 +5293,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="B239">
         <v>29</v>
@@ -5294,7 +5301,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B240">
         <v>29</v>
@@ -5302,7 +5309,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B241">
         <v>29</v>
@@ -5310,7 +5317,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B242">
         <v>29</v>
@@ -5318,7 +5325,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B243">
         <v>29</v>
@@ -5326,7 +5333,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B244">
         <v>29</v>
@@ -5334,7 +5341,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B245">
         <v>28</v>
@@ -5342,7 +5349,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B246">
         <v>28</v>
@@ -5350,7 +5357,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="B247">
         <v>28</v>
@@ -5358,7 +5365,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B248">
         <v>28</v>
@@ -5366,7 +5373,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B249">
         <v>28</v>
@@ -5374,7 +5381,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B250">
         <v>28</v>
@@ -5382,7 +5389,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B251">
         <v>28</v>
@@ -5390,7 +5397,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="B252">
         <v>28</v>
@@ -5398,7 +5405,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B253">
         <v>28</v>
@@ -5406,7 +5413,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B254">
         <v>28</v>
@@ -5414,7 +5421,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B255">
         <v>28</v>
@@ -5422,7 +5429,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B256">
         <v>28</v>
@@ -5430,7 +5437,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B257">
         <v>27</v>
@@ -5438,7 +5445,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B258">
         <v>27</v>
@@ -5446,7 +5453,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B259">
         <v>27</v>
@@ -5454,7 +5461,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="B260">
         <v>27</v>
@@ -5462,7 +5469,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B261">
         <v>27</v>
@@ -5470,7 +5477,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B262">
         <v>27</v>
@@ -5478,7 +5485,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B263">
         <v>27</v>
@@ -5486,7 +5493,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B264">
         <v>27</v>
@@ -5494,7 +5501,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B265">
         <v>27</v>
@@ -5502,7 +5509,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B266">
         <v>27</v>
@@ -5510,7 +5517,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B267">
         <v>27</v>
@@ -5518,7 +5525,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B268">
         <v>26</v>
@@ -5526,7 +5533,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B269">
         <v>26</v>
@@ -5534,7 +5541,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B270">
         <v>26</v>
@@ -5542,7 +5549,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B271">
         <v>26</v>
@@ -5550,7 +5557,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="B272">
         <v>26</v>
@@ -5558,7 +5565,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B273">
         <v>26</v>
@@ -5566,7 +5573,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B274">
         <v>26</v>
@@ -5574,7 +5581,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B275">
         <v>26</v>
@@ -5582,7 +5589,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B276">
         <v>26</v>
@@ -5590,7 +5597,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B277">
         <v>26</v>
@@ -5598,7 +5605,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B278">
         <v>25</v>
@@ -5606,7 +5613,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B279">
         <v>25</v>
@@ -5614,7 +5621,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B280">
         <v>25</v>
@@ -5622,7 +5629,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="B281">
         <v>25</v>
@@ -5630,7 +5637,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B282">
         <v>25</v>
@@ -5638,7 +5645,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B283">
         <v>25</v>
@@ -5646,7 +5653,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B284">
         <v>25</v>
@@ -5654,7 +5661,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B285">
         <v>25</v>
@@ -5662,7 +5669,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B286">
         <v>25</v>
@@ -5670,7 +5677,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B287">
         <v>25</v>
@@ -5678,7 +5685,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B288">
         <v>25</v>
@@ -5686,7 +5693,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B289">
         <v>25</v>
@@ -5694,7 +5701,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="B290">
         <v>25</v>
@@ -5702,7 +5709,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B291">
         <v>25</v>
@@ -5710,7 +5717,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B292">
         <v>25</v>
@@ -5718,7 +5725,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B293">
         <v>25</v>
@@ -5726,7 +5733,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B294">
         <v>25</v>
@@ -5734,7 +5741,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B295">
         <v>24</v>
@@ -5742,7 +5749,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B296">
         <v>24</v>
@@ -5750,7 +5757,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B297">
         <v>24</v>
@@ -5758,7 +5765,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="B298">
         <v>24</v>
@@ -5766,7 +5773,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B299">
         <v>24</v>
@@ -5774,7 +5781,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B300">
         <v>24</v>
@@ -5782,7 +5789,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B301">
         <v>24</v>
@@ -5790,7 +5797,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B302">
         <v>24</v>
@@ -5798,7 +5805,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B303">
         <v>24</v>
@@ -5806,7 +5813,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B304">
         <v>24</v>
@@ -5814,7 +5821,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B305">
         <v>24</v>
@@ -5822,7 +5829,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B306">
         <v>24</v>
@@ -5830,7 +5837,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B307">
         <v>23</v>
@@ -5838,7 +5845,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B308">
         <v>23</v>
@@ -5846,7 +5853,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B309">
         <v>23</v>
@@ -5854,7 +5861,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B310">
         <v>23</v>
@@ -5862,7 +5869,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B311">
         <v>23</v>
@@ -5870,7 +5877,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B312">
         <v>23</v>
@@ -5878,7 +5885,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B313">
         <v>23</v>
@@ -5886,7 +5893,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B314">
         <v>23</v>
@@ -5894,7 +5901,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B315">
         <v>23</v>
@@ -5902,7 +5909,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B316">
         <v>23</v>
@@ -5910,7 +5917,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B317">
         <v>23</v>
@@ -5918,7 +5925,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B318">
         <v>23</v>
@@ -5926,7 +5933,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B319">
         <v>22</v>
@@ -5934,7 +5941,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B320">
         <v>22</v>
@@ -5942,7 +5949,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B321">
         <v>22</v>
@@ -5950,7 +5957,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B322">
         <v>22</v>
@@ -5958,7 +5965,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B323">
         <v>22</v>
@@ -5966,7 +5973,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B324">
         <v>22</v>
@@ -5974,7 +5981,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B325">
         <v>22</v>
@@ -5982,7 +5989,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B326">
         <v>22</v>
@@ -5990,7 +5997,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B327">
         <v>22</v>
@@ -5998,7 +6005,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B328">
         <v>21</v>
@@ -6006,7 +6013,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B329">
         <v>21</v>
@@ -6014,7 +6021,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B330">
         <v>21</v>
@@ -6022,7 +6029,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B331">
         <v>21</v>
@@ -6030,7 +6037,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B332">
         <v>21</v>
@@ -6038,7 +6045,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B333">
         <v>21</v>
@@ -6046,7 +6053,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B334">
         <v>21</v>
@@ -6054,7 +6061,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B335">
         <v>21</v>
@@ -6062,7 +6069,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B336">
         <v>21</v>
@@ -6070,7 +6077,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B337">
         <v>21</v>
@@ -6078,7 +6085,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B338">
         <v>21</v>
@@ -6086,7 +6093,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B339">
         <v>21</v>
@@ -6094,7 +6101,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B340">
         <v>21</v>
@@ -6102,7 +6109,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B341">
         <v>21</v>
@@ -6110,7 +6117,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B342">
         <v>21</v>
@@ -6118,7 +6125,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="B343">
         <v>21</v>
@@ -6126,7 +6133,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B344">
         <v>21</v>
@@ -6134,7 +6141,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="B345">
         <v>21</v>
@@ -6142,7 +6149,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B346">
         <v>21</v>
@@ -6150,7 +6157,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B347">
         <v>20</v>
@@ -6158,7 +6165,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B348">
         <v>20</v>
@@ -6166,7 +6173,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B349">
         <v>20</v>
@@ -6174,7 +6181,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B350">
         <v>20</v>
@@ -6182,7 +6189,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B351">
         <v>20</v>
@@ -6190,7 +6197,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B352">
         <v>20</v>
@@ -6198,7 +6205,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="B353">
         <v>20</v>
@@ -6206,7 +6213,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B354">
         <v>20</v>
@@ -6214,7 +6221,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B355">
         <v>20</v>
@@ -6222,7 +6229,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B356">
         <v>20</v>
@@ -6230,7 +6237,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>322</v>
+        <v>995</v>
       </c>
       <c r="B357">
         <v>20</v>
@@ -6238,7 +6245,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B358">
         <v>20</v>
@@ -6246,7 +6253,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="B359">
         <v>20</v>
@@ -6254,7 +6261,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B360">
         <v>20</v>
@@ -6262,7 +6269,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B361">
         <v>20</v>
@@ -6270,7 +6277,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B362">
         <v>19</v>
@@ -6278,7 +6285,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B363">
         <v>19</v>
@@ -6286,7 +6293,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B364">
         <v>19</v>
@@ -6294,7 +6301,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B365">
         <v>19</v>
@@ -6302,7 +6309,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B366">
         <v>19</v>
@@ -6310,7 +6317,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B367">
         <v>19</v>
@@ -6318,7 +6325,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B368">
         <v>19</v>
@@ -6326,7 +6333,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B369">
         <v>19</v>
@@ -6334,7 +6341,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B370">
         <v>19</v>
@@ -6342,7 +6349,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B371">
         <v>19</v>
@@ -6350,7 +6357,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B372">
         <v>19</v>
@@ -6358,7 +6365,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B373">
         <v>19</v>
@@ -6366,7 +6373,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B374">
         <v>19</v>
@@ -6374,7 +6381,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B375">
         <v>19</v>
@@ -6382,7 +6389,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="B376">
         <v>19</v>
@@ -6390,7 +6397,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B377">
         <v>18</v>
@@ -6398,7 +6405,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B378">
         <v>18</v>
@@ -6406,7 +6413,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B379">
         <v>18</v>
@@ -6414,7 +6421,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B380">
         <v>18</v>
@@ -6422,7 +6429,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B381">
         <v>18</v>
@@ -6430,7 +6437,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="B382">
         <v>18</v>
@@ -6438,7 +6445,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="B383">
         <v>18</v>
@@ -6446,7 +6453,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B384">
         <v>18</v>
@@ -6454,7 +6461,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B385">
         <v>18</v>
@@ -6462,7 +6469,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B386">
         <v>18</v>
@@ -6470,7 +6477,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B387">
         <v>18</v>
@@ -6478,7 +6485,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="B388">
         <v>18</v>
@@ -6486,7 +6493,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B389">
         <v>18</v>
@@ -6494,7 +6501,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B390">
         <v>18</v>
@@ -6502,7 +6509,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B391">
         <v>18</v>
@@ -6510,7 +6517,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B392">
         <v>18</v>
@@ -6518,7 +6525,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B393">
         <v>18</v>
@@ -6526,7 +6533,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B394">
         <v>18</v>
@@ -6534,7 +6541,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B395">
         <v>18</v>
@@ -6542,7 +6549,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B396">
         <v>18</v>
@@ -6550,7 +6557,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B397">
         <v>18</v>
@@ -6558,7 +6565,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B398">
         <v>18</v>
@@ -6566,7 +6573,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B399">
         <v>17</v>
@@ -6574,7 +6581,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B400">
         <v>17</v>
@@ -6582,7 +6589,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B401">
         <v>17</v>
@@ -6590,7 +6597,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B402">
         <v>17</v>
@@ -6598,7 +6605,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="B403">
         <v>17</v>
@@ -6606,7 +6613,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="B404">
         <v>17</v>
@@ -6614,7 +6621,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B405">
         <v>17</v>
@@ -6622,7 +6629,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B406">
         <v>17</v>
@@ -6630,7 +6637,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B407">
         <v>17</v>
@@ -6638,7 +6645,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B408">
         <v>17</v>
@@ -6646,7 +6653,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B409">
         <v>17</v>
@@ -6654,7 +6661,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B410">
         <v>17</v>
@@ -6662,7 +6669,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B411">
         <v>17</v>
@@ -6670,7 +6677,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B412">
         <v>17</v>
@@ -6678,7 +6685,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B413">
         <v>17</v>
@@ -6686,7 +6693,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B414">
         <v>17</v>
@@ -6694,7 +6701,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B415">
         <v>16</v>
@@ -6702,7 +6709,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B416">
         <v>16</v>
@@ -6710,7 +6717,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B417">
         <v>16</v>
@@ -6718,7 +6725,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B418">
         <v>16</v>
@@ -6726,7 +6733,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B419">
         <v>16</v>
@@ -6734,7 +6741,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B420">
         <v>16</v>
@@ -6742,7 +6749,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B421">
         <v>16</v>
@@ -6750,7 +6757,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="B422">
         <v>16</v>
@@ -6758,7 +6765,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="B423">
         <v>16</v>
@@ -6766,7 +6773,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>379</v>
+        <v>996</v>
       </c>
       <c r="B424">
         <v>16</v>
@@ -6774,7 +6781,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B425">
         <v>16</v>
@@ -6782,7 +6789,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B426">
         <v>16</v>
@@ -6790,7 +6797,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="B427">
         <v>16</v>
@@ -6798,7 +6805,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B428">
         <v>16</v>
@@ -6806,7 +6813,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B429">
         <v>16</v>
@@ -6814,7 +6821,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B430">
         <v>16</v>
@@ -6822,7 +6829,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B431">
         <v>16</v>
@@ -6830,7 +6837,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B432">
         <v>16</v>
@@ -6838,7 +6845,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B433">
         <v>16</v>
@@ -6846,7 +6853,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B434">
         <v>16</v>
@@ -6854,7 +6861,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B435">
         <v>16</v>
@@ -6862,7 +6869,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B436">
         <v>16</v>
@@ -6870,7 +6877,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B437">
         <v>16</v>
@@ -6878,7 +6885,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B438">
         <v>16</v>
@@ -6886,7 +6893,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="B439">
         <v>16</v>
@@ -6894,7 +6901,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B440">
         <v>16</v>
@@ -6902,7 +6909,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="B441">
         <v>16</v>
@@ -6910,7 +6917,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B442">
         <v>16</v>
@@ -6918,7 +6925,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B443">
         <v>16</v>
@@ -6926,7 +6933,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B444">
         <v>16</v>
@@ -6934,7 +6941,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B445">
         <v>16</v>
@@ -6942,7 +6949,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B446">
         <v>16</v>
@@ -6950,7 +6957,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B447">
         <v>15</v>
@@ -6958,7 +6965,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B448">
         <v>15</v>
@@ -6966,7 +6973,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B449">
         <v>15</v>
@@ -6974,7 +6981,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B450">
         <v>15</v>
@@ -6982,7 +6989,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B451">
         <v>15</v>
@@ -6990,7 +6997,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B452">
         <v>15</v>
@@ -6998,7 +7005,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B453">
         <v>15</v>
@@ -7006,7 +7013,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="B454">
         <v>15</v>
@@ -7014,7 +7021,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B455">
         <v>15</v>
@@ -7022,7 +7029,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B456">
         <v>15</v>
@@ -7030,7 +7037,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B457">
         <v>15</v>
@@ -7038,7 +7045,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B458">
         <v>15</v>
@@ -7046,7 +7053,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B459">
         <v>15</v>
@@ -7054,7 +7061,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="B460">
         <v>15</v>
@@ -7062,7 +7069,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B461">
         <v>14</v>
@@ -7070,7 +7077,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B462">
         <v>14</v>
@@ -7078,7 +7085,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B463">
         <v>14</v>
@@ -7086,7 +7093,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B464">
         <v>14</v>
@@ -7094,7 +7101,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B465">
         <v>14</v>
@@ -7102,7 +7109,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B466">
         <v>14</v>
@@ -7110,7 +7117,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B467">
         <v>14</v>
@@ -7118,7 +7125,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B468">
         <v>14</v>
@@ -7126,7 +7133,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B469">
         <v>14</v>
@@ -7134,7 +7141,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B470">
         <v>14</v>
@@ -7142,7 +7149,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>421</v>
+        <v>997</v>
       </c>
       <c r="B471">
         <v>14</v>
@@ -7150,7 +7157,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>942</v>
+        <v>998</v>
       </c>
       <c r="B472">
         <v>14</v>
@@ -7158,7 +7165,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B473">
         <v>14</v>
@@ -7166,7 +7173,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B474">
         <v>14</v>
@@ -7174,7 +7181,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B475">
         <v>14</v>
@@ -7182,7 +7189,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B476">
         <v>14</v>
@@ -7190,7 +7197,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="B477">
         <v>14</v>
@@ -7198,7 +7205,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B478">
         <v>14</v>
@@ -7206,7 +7213,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B479">
         <v>14</v>
@@ -7214,7 +7221,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B480">
         <v>14</v>
@@ -7222,7 +7229,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B481">
         <v>14</v>
@@ -7230,7 +7237,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B482">
         <v>14</v>
@@ -7238,7 +7245,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B483">
         <v>14</v>
@@ -7246,7 +7253,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B484">
         <v>14</v>
@@ -7254,7 +7261,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B485">
         <v>14</v>
@@ -7262,7 +7269,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B486">
         <v>14</v>
@@ -7270,7 +7277,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B487">
         <v>14</v>
@@ -7278,7 +7285,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B488">
         <v>14</v>
@@ -7286,7 +7293,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B489">
         <v>14</v>
@@ -7294,7 +7301,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B490">
         <v>14</v>
@@ -7302,7 +7309,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B491">
         <v>14</v>
@@ -7310,7 +7317,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B492">
         <v>14</v>
@@ -7318,7 +7325,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B493">
         <v>14</v>
@@ -7326,7 +7333,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B494">
         <v>14</v>
@@ -7334,7 +7341,7 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B495">
         <v>14</v>
@@ -7342,7 +7349,7 @@
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B496">
         <v>14</v>
@@ -7350,7 +7357,7 @@
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="B497">
         <v>14</v>
@@ -7358,7 +7365,7 @@
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B498">
         <v>14</v>
@@ -7366,7 +7373,7 @@
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B499">
         <v>14</v>
@@ -7374,7 +7381,7 @@
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B500">
         <v>14</v>
@@ -7382,7 +7389,7 @@
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B501">
         <v>14</v>
@@ -7390,7 +7397,7 @@
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B502">
         <v>14</v>
@@ -7398,7 +7405,7 @@
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B503">
         <v>13</v>
@@ -7406,7 +7413,7 @@
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B504">
         <v>13</v>
@@ -7414,7 +7421,7 @@
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B505">
         <v>13</v>
@@ -7422,7 +7429,7 @@
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B506">
         <v>13</v>
@@ -7430,7 +7437,7 @@
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B507">
         <v>13</v>
@@ -7438,7 +7445,7 @@
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="B508">
         <v>13</v>
@@ -7446,7 +7453,7 @@
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="B509">
         <v>13</v>
@@ -7454,7 +7461,7 @@
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B510">
         <v>13</v>
@@ -7462,7 +7469,7 @@
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B511">
         <v>13</v>
@@ -7470,7 +7477,7 @@
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B512">
         <v>13</v>
@@ -7478,7 +7485,7 @@
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="B513">
         <v>13</v>
@@ -7486,7 +7493,7 @@
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B514">
         <v>13</v>
@@ -7494,7 +7501,7 @@
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B515">
         <v>13</v>
@@ -7502,7 +7509,7 @@
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B516">
         <v>13</v>
@@ -7510,7 +7517,7 @@
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B517">
         <v>13</v>
@@ -7518,7 +7525,7 @@
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B518">
         <v>13</v>
@@ -7526,7 +7533,7 @@
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B519">
         <v>13</v>
@@ -7534,7 +7541,7 @@
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B520">
         <v>13</v>
@@ -7542,7 +7549,7 @@
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B521">
         <v>13</v>
@@ -7550,7 +7557,7 @@
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B522">
         <v>13</v>
@@ -7558,7 +7565,7 @@
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B523">
         <v>13</v>
@@ -7566,7 +7573,7 @@
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B524">
         <v>13</v>
@@ -7574,7 +7581,7 @@
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B525">
         <v>13</v>
@@ -7582,7 +7589,7 @@
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B526">
         <v>13</v>
@@ -7590,7 +7597,7 @@
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B527">
         <v>13</v>
@@ -7598,7 +7605,7 @@
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B528">
         <v>13</v>
@@ -7606,7 +7613,7 @@
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B529">
         <v>13</v>
@@ -7614,7 +7621,7 @@
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B530">
         <v>13</v>
@@ -7622,7 +7629,7 @@
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B531">
         <v>13</v>
@@ -7630,7 +7637,7 @@
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="B532">
         <v>13</v>
@@ -7638,7 +7645,7 @@
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="B533">
         <v>13</v>
@@ -7646,7 +7653,7 @@
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B534">
         <v>13</v>
@@ -7654,7 +7661,7 @@
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B535">
         <v>13</v>
@@ -7662,7 +7669,7 @@
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B536">
         <v>13</v>
@@ -7670,7 +7677,7 @@
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B537">
         <v>13</v>
@@ -7678,7 +7685,7 @@
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B538">
         <v>13</v>
@@ -7686,7 +7693,7 @@
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B539">
         <v>13</v>
@@ -7694,7 +7701,7 @@
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B540">
         <v>13</v>
@@ -7702,7 +7709,7 @@
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="B541">
         <v>13</v>
@@ -7710,7 +7717,7 @@
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B542">
         <v>12</v>
@@ -7718,7 +7725,7 @@
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="B543">
         <v>12</v>
@@ -7726,7 +7733,7 @@
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B544">
         <v>12</v>
@@ -7734,7 +7741,7 @@
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B545">
         <v>12</v>
@@ -7742,7 +7749,7 @@
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B546">
         <v>12</v>
@@ -7750,7 +7757,7 @@
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B547">
         <v>12</v>
@@ -7758,7 +7765,7 @@
     </row>
     <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="B548">
         <v>12</v>
@@ -7766,7 +7773,7 @@
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B549">
         <v>12</v>
@@ -7774,7 +7781,7 @@
     </row>
     <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B550">
         <v>12</v>
@@ -7782,7 +7789,7 @@
     </row>
     <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B551">
         <v>12</v>
@@ -7790,7 +7797,7 @@
     </row>
     <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B552">
         <v>12</v>
@@ -7798,7 +7805,7 @@
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B553">
         <v>12</v>
@@ -7806,7 +7813,7 @@
     </row>
     <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B554">
         <v>12</v>
@@ -7814,7 +7821,7 @@
     </row>
     <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B555">
         <v>12</v>
@@ -7822,7 +7829,7 @@
     </row>
     <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B556">
         <v>12</v>
@@ -7830,7 +7837,7 @@
     </row>
     <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B557">
         <v>12</v>
@@ -7838,7 +7845,7 @@
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B558">
         <v>12</v>
@@ -7846,7 +7853,7 @@
     </row>
     <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B559">
         <v>12</v>
@@ -7854,7 +7861,7 @@
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B560">
         <v>12</v>
@@ -7862,7 +7869,7 @@
     </row>
     <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B561">
         <v>12</v>
@@ -7870,7 +7877,7 @@
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B562">
         <v>12</v>
@@ -7878,7 +7885,7 @@
     </row>
     <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B563">
         <v>12</v>
@@ -7886,7 +7893,7 @@
     </row>
     <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B564">
         <v>12</v>
@@ -7894,7 +7901,7 @@
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B565">
         <v>12</v>
@@ -7902,7 +7909,7 @@
     </row>
     <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B566">
         <v>12</v>
@@ -7910,7 +7917,7 @@
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B567">
         <v>12</v>
@@ -7918,7 +7925,7 @@
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B568">
         <v>12</v>
@@ -7926,7 +7933,7 @@
     </row>
     <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B569">
         <v>12</v>
@@ -7934,7 +7941,7 @@
     </row>
     <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B570">
         <v>12</v>
@@ -7942,7 +7949,7 @@
     </row>
     <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B571">
         <v>12</v>
@@ -7950,7 +7957,7 @@
     </row>
     <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B572">
         <v>12</v>
@@ -7958,7 +7965,7 @@
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B573">
         <v>12</v>
@@ -7966,7 +7973,7 @@
     </row>
     <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>515</v>
+        <v>999</v>
       </c>
       <c r="B574">
         <v>12</v>
@@ -7974,7 +7981,7 @@
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B575">
         <v>12</v>
@@ -7982,7 +7989,7 @@
     </row>
     <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B576">
         <v>12</v>
@@ -7990,7 +7997,7 @@
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B577">
         <v>12</v>
@@ -7998,7 +8005,7 @@
     </row>
     <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B578">
         <v>12</v>
@@ -8006,7 +8013,7 @@
     </row>
     <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B579">
         <v>12</v>
@@ -8014,7 +8021,7 @@
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B580">
         <v>12</v>
@@ -8022,7 +8029,7 @@
     </row>
     <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="B581">
         <v>12</v>
@@ -8030,7 +8037,7 @@
     </row>
     <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B582">
         <v>12</v>
@@ -8038,7 +8045,7 @@
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B583">
         <v>11</v>
@@ -8046,7 +8053,7 @@
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B584">
         <v>11</v>
@@ -8054,7 +8061,7 @@
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B585">
         <v>11</v>
@@ -8062,7 +8069,7 @@
     </row>
     <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B586">
         <v>11</v>
@@ -8070,7 +8077,7 @@
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B587">
         <v>11</v>
@@ -8078,7 +8085,7 @@
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B588">
         <v>11</v>
@@ -8086,7 +8093,7 @@
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B589">
         <v>11</v>
@@ -8094,7 +8101,7 @@
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B590">
         <v>11</v>
@@ -8102,7 +8109,7 @@
     </row>
     <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="B591">
         <v>11</v>
@@ -8110,7 +8117,7 @@
     </row>
     <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B592">
         <v>11</v>
@@ -8118,7 +8125,7 @@
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="B593">
         <v>11</v>
@@ -8126,7 +8133,7 @@
     </row>
     <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B594">
         <v>11</v>
@@ -8134,7 +8141,7 @@
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="B595">
         <v>11</v>
@@ -8142,7 +8149,7 @@
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="B596">
         <v>11</v>
@@ -8150,7 +8157,7 @@
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B597">
         <v>11</v>
@@ -8158,7 +8165,7 @@
     </row>
     <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="B598">
         <v>11</v>
@@ -8166,7 +8173,7 @@
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="B599">
         <v>11</v>
@@ -8174,7 +8181,7 @@
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B600">
         <v>11</v>
@@ -8182,7 +8189,7 @@
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="B601">
         <v>11</v>
@@ -8190,7 +8197,7 @@
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B602">
         <v>11</v>
@@ -8198,7 +8205,7 @@
     </row>
     <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B603">
         <v>11</v>
@@ -8206,7 +8213,7 @@
     </row>
     <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="B604">
         <v>11</v>
@@ -8214,7 +8221,7 @@
     </row>
     <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B605">
         <v>11</v>
@@ -8222,7 +8229,7 @@
     </row>
     <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B606">
         <v>11</v>
@@ -8230,7 +8237,7 @@
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B607">
         <v>11</v>
@@ -8238,7 +8245,7 @@
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B608">
         <v>11</v>
@@ -8246,7 +8253,7 @@
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B609">
         <v>11</v>
@@ -8254,7 +8261,7 @@
     </row>
     <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B610">
         <v>11</v>
@@ -8262,7 +8269,7 @@
     </row>
     <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B611">
         <v>11</v>
@@ -8270,7 +8277,7 @@
     </row>
     <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B612">
         <v>11</v>
@@ -8278,7 +8285,7 @@
     </row>
     <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B613">
         <v>11</v>
@@ -8286,7 +8293,7 @@
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="B614">
         <v>11</v>
@@ -8294,7 +8301,7 @@
     </row>
     <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B615">
         <v>11</v>
@@ -8302,7 +8309,7 @@
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B616">
         <v>11</v>
@@ -8310,7 +8317,7 @@
     </row>
     <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B617">
         <v>11</v>
@@ -8318,7 +8325,7 @@
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="B618">
         <v>11</v>
@@ -8326,7 +8333,7 @@
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B619">
         <v>11</v>
@@ -8334,7 +8341,7 @@
     </row>
     <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B620">
         <v>11</v>
@@ -8342,7 +8349,7 @@
     </row>
     <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B621">
         <v>11</v>
@@ -8350,7 +8357,7 @@
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B622">
         <v>11</v>
@@ -8358,7 +8365,7 @@
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B623">
         <v>11</v>
@@ -8366,7 +8373,7 @@
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="B624">
         <v>11</v>
@@ -8374,7 +8381,7 @@
     </row>
     <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B625">
         <v>11</v>
@@ -8382,7 +8389,7 @@
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="B626">
         <v>11</v>
@@ -8390,7 +8397,7 @@
     </row>
     <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B627">
         <v>11</v>
@@ -8398,7 +8405,7 @@
     </row>
     <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="B628">
         <v>11</v>
@@ -8406,7 +8413,7 @@
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B629">
         <v>11</v>
@@ -8414,7 +8421,7 @@
     </row>
     <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B630">
         <v>11</v>
@@ -8422,7 +8429,7 @@
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B631">
         <v>11</v>
@@ -8430,7 +8437,7 @@
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="B632">
         <v>10</v>
@@ -8438,7 +8445,7 @@
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B633">
         <v>10</v>
@@ -8446,7 +8453,7 @@
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B634">
         <v>10</v>
@@ -8454,7 +8461,7 @@
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B635">
         <v>10</v>
@@ -8462,7 +8469,7 @@
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B636">
         <v>10</v>
@@ -8470,7 +8477,7 @@
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B637">
         <v>10</v>
@@ -8478,7 +8485,7 @@
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="B638">
         <v>10</v>
@@ -8486,7 +8493,7 @@
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B639">
         <v>10</v>
@@ -8494,7 +8501,7 @@
     </row>
     <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="B640">
         <v>10</v>
@@ -8502,7 +8509,7 @@
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B641">
         <v>10</v>
@@ -8510,7 +8517,7 @@
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B642">
         <v>10</v>
@@ -8518,7 +8525,7 @@
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="B643">
         <v>10</v>
@@ -8526,7 +8533,7 @@
     </row>
     <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B644">
         <v>10</v>
@@ -8534,7 +8541,7 @@
     </row>
     <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="B645">
         <v>10</v>
@@ -8542,7 +8549,7 @@
     </row>
     <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B646">
         <v>10</v>
@@ -8550,7 +8557,7 @@
     </row>
     <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="B647">
         <v>10</v>
@@ -8558,7 +8565,7 @@
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B648">
         <v>10</v>
@@ -8566,7 +8573,7 @@
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B649">
         <v>10</v>
@@ -8574,7 +8581,7 @@
     </row>
     <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="B650">
         <v>10</v>
@@ -8582,7 +8589,7 @@
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B651">
         <v>10</v>
@@ -8590,7 +8597,7 @@
     </row>
     <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B652">
         <v>10</v>
@@ -8598,7 +8605,7 @@
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B653">
         <v>10</v>
@@ -8606,7 +8613,7 @@
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="B654">
         <v>10</v>
@@ -8614,7 +8621,7 @@
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B655">
         <v>10</v>
@@ -8622,7 +8629,7 @@
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B656">
         <v>10</v>
@@ -8630,7 +8637,7 @@
     </row>
     <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B657">
         <v>10</v>
@@ -8638,7 +8645,7 @@
     </row>
     <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B658">
         <v>10</v>
@@ -8646,7 +8653,7 @@
     </row>
     <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B659">
         <v>10</v>
@@ -8654,7 +8661,7 @@
     </row>
     <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B660">
         <v>10</v>
@@ -8662,7 +8669,7 @@
     </row>
     <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B661">
         <v>10</v>
@@ -8670,7 +8677,7 @@
     </row>
     <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="B662">
         <v>10</v>
@@ -8678,7 +8685,7 @@
     </row>
     <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B663">
         <v>10</v>
@@ -8686,7 +8693,7 @@
     </row>
     <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="B664">
         <v>10</v>
@@ -8694,7 +8701,7 @@
     </row>
     <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B665">
         <v>10</v>
@@ -8702,7 +8709,7 @@
     </row>
     <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="B666">
         <v>10</v>
@@ -8710,7 +8717,7 @@
     </row>
     <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="B667">
         <v>10</v>
@@ -8718,7 +8725,7 @@
     </row>
     <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="B668">
         <v>10</v>
@@ -8726,7 +8733,7 @@
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B669">
         <v>10</v>
@@ -8734,7 +8741,7 @@
     </row>
     <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="B670">
         <v>10</v>
@@ -8742,7 +8749,7 @@
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B671">
         <v>10</v>
@@ -8750,7 +8757,7 @@
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B672">
         <v>10</v>
@@ -8758,7 +8765,7 @@
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B673">
         <v>10</v>
@@ -8766,7 +8773,7 @@
     </row>
     <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="B674">
         <v>10</v>
@@ -8774,7 +8781,7 @@
     </row>
     <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B675">
         <v>10</v>
@@ -8782,7 +8789,7 @@
     </row>
     <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="B676">
         <v>10</v>
@@ -8790,7 +8797,7 @@
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B677">
         <v>10</v>
@@ -8798,7 +8805,7 @@
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B678">
         <v>10</v>
@@ -8806,7 +8813,7 @@
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B679">
         <v>10</v>
@@ -8814,7 +8821,7 @@
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="B680">
         <v>10</v>
@@ -8822,7 +8829,7 @@
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B681">
         <v>10</v>
@@ -8830,7 +8837,7 @@
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="B682">
         <v>10</v>
@@ -8838,7 +8845,7 @@
     </row>
     <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="B683">
         <v>10</v>
@@ -8846,7 +8853,7 @@
     </row>
     <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B684">
         <v>10</v>
@@ -8854,7 +8861,7 @@
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B685">
         <v>10</v>
@@ -8862,7 +8869,7 @@
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B686">
         <v>10</v>
@@ -8870,7 +8877,7 @@
     </row>
     <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B687">
         <v>9</v>
@@ -8878,7 +8885,7 @@
     </row>
     <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B688">
         <v>9</v>
@@ -8886,7 +8893,7 @@
     </row>
     <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="B689">
         <v>9</v>
@@ -8894,7 +8901,7 @@
     </row>
     <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B690">
         <v>9</v>
@@ -8902,7 +8909,7 @@
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B691">
         <v>9</v>
@@ -8910,7 +8917,7 @@
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B692">
         <v>9</v>
@@ -8918,7 +8925,7 @@
     </row>
     <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="B693">
         <v>9</v>
@@ -8926,7 +8933,7 @@
     </row>
     <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B694">
         <v>9</v>
@@ -8934,7 +8941,7 @@
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="B695">
         <v>9</v>
@@ -8942,7 +8949,7 @@
     </row>
     <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="B696">
         <v>9</v>
@@ -8950,7 +8957,7 @@
     </row>
     <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B697">
         <v>9</v>
@@ -8958,7 +8965,7 @@
     </row>
     <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="B698">
         <v>9</v>
@@ -8966,7 +8973,7 @@
     </row>
     <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B699">
         <v>9</v>
@@ -8974,7 +8981,7 @@
     </row>
     <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B700">
         <v>9</v>
@@ -8982,7 +8989,7 @@
     </row>
     <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B701">
         <v>9</v>
@@ -8990,7 +8997,7 @@
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="B702">
         <v>9</v>
@@ -8998,7 +9005,7 @@
     </row>
     <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="B703">
         <v>9</v>
@@ -9006,7 +9013,7 @@
     </row>
     <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B704">
         <v>9</v>
@@ -9014,7 +9021,7 @@
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="B705">
         <v>9</v>
@@ -9022,7 +9029,7 @@
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="B706">
         <v>9</v>
@@ -9030,7 +9037,7 @@
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="B707">
         <v>9</v>
@@ -9038,7 +9045,7 @@
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="B708">
         <v>9</v>
@@ -9046,7 +9053,7 @@
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B709">
         <v>9</v>
@@ -9054,7 +9061,7 @@
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B710">
         <v>9</v>
@@ -9062,7 +9069,7 @@
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="B711">
         <v>9</v>
@@ -9070,7 +9077,7 @@
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="B712">
         <v>9</v>
@@ -9078,7 +9085,7 @@
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="B713">
         <v>9</v>
@@ -9086,7 +9093,7 @@
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="B714">
         <v>9</v>
@@ -9094,7 +9101,7 @@
     </row>
     <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B715">
         <v>9</v>
@@ -9102,7 +9109,7 @@
     </row>
     <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="B716">
         <v>9</v>
@@ -9110,7 +9117,7 @@
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="B717">
         <v>9</v>
@@ -9118,7 +9125,7 @@
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B718">
         <v>9</v>
@@ -9126,7 +9133,7 @@
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="B719">
         <v>9</v>
@@ -9134,7 +9141,7 @@
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="B720">
         <v>9</v>
@@ -9142,7 +9149,7 @@
     </row>
     <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="B721">
         <v>9</v>
@@ -9150,7 +9157,7 @@
     </row>
     <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="B722">
         <v>9</v>
@@ -9158,7 +9165,7 @@
     </row>
     <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="B723">
         <v>9</v>
@@ -9166,7 +9173,7 @@
     </row>
     <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B724">
         <v>9</v>
@@ -9174,7 +9181,7 @@
     </row>
     <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B725">
         <v>9</v>
@@ -9182,7 +9189,7 @@
     </row>
     <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="B726">
         <v>9</v>
@@ -9190,7 +9197,7 @@
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>652</v>
+        <v>1000</v>
       </c>
       <c r="B727">
         <v>9</v>
@@ -9198,7 +9205,7 @@
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="B728">
         <v>9</v>
@@ -9206,7 +9213,7 @@
     </row>
     <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B729">
         <v>9</v>
@@ -9214,7 +9221,7 @@
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B730">
         <v>9</v>
@@ -9222,7 +9229,7 @@
     </row>
     <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B731">
         <v>9</v>
@@ -9230,7 +9237,7 @@
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B732">
         <v>9</v>
@@ -9238,7 +9245,7 @@
     </row>
     <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B733">
         <v>9</v>
@@ -9246,7 +9253,7 @@
     </row>
     <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B734">
         <v>9</v>
@@ -9254,7 +9261,7 @@
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B735">
         <v>9</v>
@@ -9262,7 +9269,7 @@
     </row>
     <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B736">
         <v>9</v>
@@ -9270,7 +9277,7 @@
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="B737">
         <v>9</v>
@@ -9278,7 +9285,7 @@
     </row>
     <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B738">
         <v>9</v>
@@ -9286,7 +9293,7 @@
     </row>
     <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B739">
         <v>9</v>
@@ -9294,7 +9301,7 @@
     </row>
     <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="B740">
         <v>9</v>
@@ -9302,7 +9309,7 @@
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B741">
         <v>9</v>
@@ -9310,7 +9317,7 @@
     </row>
     <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B742">
         <v>9</v>
@@ -9318,7 +9325,7 @@
     </row>
     <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B743">
         <v>9</v>
@@ -9326,7 +9333,7 @@
     </row>
     <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B744">
         <v>8</v>
@@ -9334,7 +9341,7 @@
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B745">
         <v>8</v>
@@ -9342,7 +9349,7 @@
     </row>
     <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B746">
         <v>8</v>
@@ -9350,7 +9357,7 @@
     </row>
     <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B747">
         <v>8</v>
@@ -9358,7 +9365,7 @@
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B748">
         <v>8</v>
@@ -9366,7 +9373,7 @@
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B749">
         <v>8</v>
@@ -9374,7 +9381,7 @@
     </row>
     <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B750">
         <v>8</v>
@@ -9382,7 +9389,7 @@
     </row>
     <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B751">
         <v>8</v>
@@ -9390,7 +9397,7 @@
     </row>
     <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B752">
         <v>8</v>
@@ -9398,7 +9405,7 @@
     </row>
     <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B753">
         <v>8</v>
@@ -9406,7 +9413,7 @@
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B754">
         <v>8</v>
@@ -9414,7 +9421,7 @@
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B755">
         <v>8</v>
@@ -9422,7 +9429,7 @@
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B756">
         <v>8</v>
@@ -9430,7 +9437,7 @@
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B757">
         <v>8</v>
@@ -9438,7 +9445,7 @@
     </row>
     <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="B758">
         <v>8</v>
@@ -9446,7 +9453,7 @@
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B759">
         <v>8</v>
@@ -9454,7 +9461,7 @@
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="B760">
         <v>8</v>
@@ -9462,7 +9469,7 @@
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B761">
         <v>8</v>
@@ -9470,7 +9477,7 @@
     </row>
     <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="B762">
         <v>8</v>
@@ -9478,7 +9485,7 @@
     </row>
     <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B763">
         <v>8</v>
@@ -9486,7 +9493,7 @@
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B764">
         <v>8</v>
@@ -9494,7 +9501,7 @@
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B765">
         <v>8</v>
@@ -9502,7 +9509,7 @@
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="B766">
         <v>8</v>
@@ -9510,7 +9517,7 @@
     </row>
     <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="B767">
         <v>8</v>
@@ -9518,7 +9525,7 @@
     </row>
     <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B768">
         <v>8</v>
@@ -9526,7 +9533,7 @@
     </row>
     <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="B769">
         <v>8</v>
@@ -9534,7 +9541,7 @@
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="B770">
         <v>8</v>
@@ -9542,7 +9549,7 @@
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B771">
         <v>8</v>
@@ -9550,7 +9557,7 @@
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B772">
         <v>8</v>
@@ -9558,7 +9565,7 @@
     </row>
     <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="B773">
         <v>8</v>
@@ -9566,7 +9573,7 @@
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B774">
         <v>8</v>
@@ -9574,7 +9581,7 @@
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="B775">
         <v>8</v>
@@ -9582,7 +9589,7 @@
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="B776">
         <v>8</v>
@@ -9590,7 +9597,7 @@
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="B777">
         <v>8</v>
@@ -9598,7 +9605,7 @@
     </row>
     <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B778">
         <v>8</v>
@@ -9606,7 +9613,7 @@
     </row>
     <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="B779">
         <v>8</v>
@@ -9614,7 +9621,7 @@
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B780">
         <v>8</v>
@@ -9622,7 +9629,7 @@
     </row>
     <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="B781">
         <v>8</v>
@@ -9630,7 +9637,7 @@
     </row>
     <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B782">
         <v>8</v>
@@ -9638,7 +9645,7 @@
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B783">
         <v>8</v>
@@ -9646,7 +9653,7 @@
     </row>
     <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B784">
         <v>8</v>
@@ -9654,7 +9661,7 @@
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B785">
         <v>8</v>
@@ -9662,7 +9669,7 @@
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="B786">
         <v>8</v>
@@ -9670,7 +9677,7 @@
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B787">
         <v>8</v>
@@ -9678,7 +9685,7 @@
     </row>
     <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B788">
         <v>8</v>
@@ -9686,7 +9693,7 @@
     </row>
     <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B789">
         <v>8</v>
@@ -9694,7 +9701,7 @@
     </row>
     <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="B790">
         <v>8</v>
@@ -9702,7 +9709,7 @@
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B791">
         <v>8</v>
@@ -9710,7 +9717,7 @@
     </row>
     <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B792">
         <v>8</v>
@@ -9718,7 +9725,7 @@
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B793">
         <v>8</v>
@@ -9726,7 +9733,7 @@
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="B794">
         <v>8</v>
@@ -9734,7 +9741,7 @@
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="B795">
         <v>8</v>
@@ -9742,7 +9749,7 @@
     </row>
     <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="B796">
         <v>8</v>
@@ -9750,7 +9757,7 @@
     </row>
     <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B797">
         <v>8</v>
@@ -9758,7 +9765,7 @@
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B798">
         <v>8</v>
@@ -9766,7 +9773,7 @@
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="B799">
         <v>8</v>
@@ -9774,7 +9781,7 @@
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B800">
         <v>8</v>
@@ -9782,7 +9789,7 @@
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B801">
         <v>8</v>
@@ -9790,7 +9797,7 @@
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B802">
         <v>8</v>
@@ -9798,7 +9805,7 @@
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="B803">
         <v>8</v>
@@ -9806,7 +9813,7 @@
     </row>
     <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B804">
         <v>8</v>
@@ -9814,7 +9821,7 @@
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B805">
         <v>8</v>
@@ -9822,7 +9829,7 @@
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B806">
         <v>8</v>
@@ -9830,7 +9837,7 @@
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B807">
         <v>8</v>
@@ -9838,7 +9845,7 @@
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="B808">
         <v>8</v>
@@ -9846,7 +9853,7 @@
     </row>
     <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B809">
         <v>8</v>
@@ -9854,7 +9861,7 @@
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B810">
         <v>8</v>
@@ -9862,7 +9869,7 @@
     </row>
     <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B811">
         <v>8</v>
@@ -9870,7 +9877,7 @@
     </row>
     <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B812">
         <v>8</v>
@@ -9878,7 +9885,7 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B813">
         <v>8</v>
@@ -9886,7 +9893,7 @@
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B814">
         <v>8</v>
@@ -9894,7 +9901,7 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B815">
         <v>8</v>
@@ -9902,7 +9909,7 @@
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B816">
         <v>8</v>
@@ -9910,7 +9917,7 @@
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B817">
         <v>8</v>
@@ -9918,7 +9925,7 @@
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B818">
         <v>8</v>
@@ -9926,7 +9933,7 @@
     </row>
     <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B819">
         <v>8</v>
@@ -9934,7 +9941,7 @@
     </row>
     <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B820">
         <v>8</v>
@@ -9942,7 +9949,7 @@
     </row>
     <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B821">
         <v>8</v>
@@ -9950,7 +9957,7 @@
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B822">
         <v>8</v>
@@ -9958,7 +9965,7 @@
     </row>
     <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B823">
         <v>8</v>
@@ -9966,7 +9973,7 @@
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B824">
         <v>7</v>
@@ -9974,7 +9981,7 @@
     </row>
     <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="B825">
         <v>7</v>
@@ -9982,7 +9989,7 @@
     </row>
     <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B826">
         <v>7</v>
@@ -9990,7 +9997,7 @@
     </row>
     <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B827">
         <v>7</v>
@@ -9998,7 +10005,7 @@
     </row>
     <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B828">
         <v>7</v>
@@ -10006,7 +10013,7 @@
     </row>
     <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B829">
         <v>7</v>
@@ -10014,7 +10021,7 @@
     </row>
     <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="B830">
         <v>7</v>
@@ -10022,7 +10029,7 @@
     </row>
     <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B831">
         <v>7</v>
@@ -10030,7 +10037,7 @@
     </row>
     <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B832">
         <v>7</v>
@@ -10038,7 +10045,7 @@
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B833">
         <v>7</v>
@@ -10046,7 +10053,7 @@
     </row>
     <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B834">
         <v>7</v>
@@ -10054,7 +10061,7 @@
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B835">
         <v>7</v>
@@ -10062,7 +10069,7 @@
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B836">
         <v>7</v>
@@ -10070,7 +10077,7 @@
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B837">
         <v>7</v>
@@ -10078,7 +10085,7 @@
     </row>
     <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B838">
         <v>7</v>
@@ -10086,7 +10093,7 @@
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B839">
         <v>7</v>
@@ -10094,7 +10101,7 @@
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B840">
         <v>7</v>
@@ -10102,7 +10109,7 @@
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B841">
         <v>7</v>
@@ -10110,7 +10117,7 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B842">
         <v>7</v>
@@ -10118,7 +10125,7 @@
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B843">
         <v>7</v>
@@ -10126,7 +10133,7 @@
     </row>
     <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B844">
         <v>7</v>
@@ -10134,7 +10141,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B845">
         <v>7</v>
@@ -10142,7 +10149,7 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B846">
         <v>7</v>
@@ -10150,7 +10157,7 @@
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B847">
         <v>7</v>
@@ -10158,7 +10165,7 @@
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B848">
         <v>7</v>
@@ -10166,7 +10173,7 @@
     </row>
     <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B849">
         <v>7</v>
@@ -10174,7 +10181,7 @@
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="B850">
         <v>7</v>
@@ -10182,7 +10189,7 @@
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="B851">
         <v>7</v>
@@ -10190,7 +10197,7 @@
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="B852">
         <v>7</v>
@@ -10198,7 +10205,7 @@
     </row>
     <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B853">
         <v>7</v>
@@ -10206,7 +10213,7 @@
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="B854">
         <v>7</v>
@@ -10214,7 +10221,7 @@
     </row>
     <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B855">
         <v>7</v>
@@ -10222,7 +10229,7 @@
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="B856">
         <v>7</v>
@@ -10230,7 +10237,7 @@
     </row>
     <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B857">
         <v>7</v>
@@ -10238,7 +10245,7 @@
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B858">
         <v>7</v>
@@ -10246,7 +10253,7 @@
     </row>
     <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B859">
         <v>7</v>
@@ -10254,7 +10261,7 @@
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B860">
         <v>7</v>
@@ -10262,7 +10269,7 @@
     </row>
     <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B861">
         <v>7</v>
@@ -10270,7 +10277,7 @@
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B862">
         <v>7</v>
@@ -10278,7 +10285,7 @@
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B863">
         <v>7</v>
@@ -10286,7 +10293,7 @@
     </row>
     <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B864">
         <v>7</v>
@@ -10294,7 +10301,7 @@
     </row>
     <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B865">
         <v>7</v>
@@ -10302,7 +10309,7 @@
     </row>
     <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B866">
         <v>7</v>
@@ -10310,7 +10317,7 @@
     </row>
     <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B867">
         <v>7</v>
@@ -10318,7 +10325,7 @@
     </row>
     <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B868">
         <v>7</v>
@@ -10326,7 +10333,7 @@
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B869">
         <v>7</v>
@@ -10334,7 +10341,7 @@
     </row>
     <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B870">
         <v>7</v>
@@ -10342,7 +10349,7 @@
     </row>
     <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B871">
         <v>7</v>
@@ -10350,7 +10357,7 @@
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B872">
         <v>7</v>
@@ -10358,7 +10365,7 @@
     </row>
     <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B873">
         <v>7</v>
@@ -10366,7 +10373,7 @@
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B874">
         <v>7</v>
@@ -10374,7 +10381,7 @@
     </row>
     <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B875">
         <v>7</v>
@@ -10382,7 +10389,7 @@
     </row>
     <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B876">
         <v>7</v>
@@ -10390,7 +10397,7 @@
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B877">
         <v>7</v>
@@ -10398,7 +10405,7 @@
     </row>
     <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B878">
         <v>7</v>
@@ -10406,7 +10413,7 @@
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B879">
         <v>7</v>
@@ -10414,7 +10421,7 @@
     </row>
     <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B880">
         <v>7</v>
@@ -10422,7 +10429,7 @@
     </row>
     <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B881">
         <v>7</v>
@@ -10430,7 +10437,7 @@
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B882">
         <v>7</v>
@@ -10438,7 +10445,7 @@
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B883">
         <v>7</v>
@@ -10446,7 +10453,7 @@
     </row>
     <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B884">
         <v>7</v>
@@ -10454,7 +10461,7 @@
     </row>
     <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="B885">
         <v>7</v>
@@ -10462,7 +10469,7 @@
     </row>
     <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B886">
         <v>7</v>
@@ -10470,7 +10477,7 @@
     </row>
     <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B887">
         <v>7</v>
@@ -10478,7 +10485,7 @@
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B888">
         <v>7</v>
@@ -10486,7 +10493,7 @@
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B889">
         <v>7</v>
@@ -10494,7 +10501,7 @@
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B890">
         <v>7</v>
@@ -10502,7 +10509,7 @@
     </row>
     <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B891">
         <v>7</v>
@@ -10510,7 +10517,7 @@
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B892">
         <v>7</v>
@@ -10518,7 +10525,7 @@
     </row>
     <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B893">
         <v>7</v>
@@ -10526,7 +10533,7 @@
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B894">
         <v>7</v>
@@ -10534,7 +10541,7 @@
     </row>
     <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B895">
         <v>7</v>
@@ -10542,7 +10549,7 @@
     </row>
     <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B896">
         <v>7</v>
@@ -10550,7 +10557,7 @@
     </row>
     <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B897">
         <v>7</v>
@@ -10558,7 +10565,7 @@
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B898">
         <v>7</v>
@@ -10566,7 +10573,7 @@
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B899">
         <v>7</v>
@@ -10574,7 +10581,7 @@
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B900">
         <v>7</v>
@@ -10582,7 +10589,7 @@
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="B901">
         <v>7</v>
@@ -10590,7 +10597,7 @@
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="B902">
         <v>7</v>
@@ -10598,7 +10605,7 @@
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B903">
         <v>7</v>
@@ -10606,7 +10613,7 @@
     </row>
     <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="B904">
         <v>7</v>
@@ -10614,7 +10621,7 @@
     </row>
     <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B905">
         <v>7</v>
@@ -10622,7 +10629,7 @@
     </row>
     <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B906">
         <v>7</v>
@@ -10630,7 +10637,7 @@
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B907">
         <v>7</v>
@@ -10638,7 +10645,7 @@
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="B908">
         <v>7</v>
@@ -10646,7 +10653,7 @@
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="B909">
         <v>7</v>
@@ -10654,7 +10661,7 @@
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B910">
         <v>7</v>
@@ -10662,7 +10669,7 @@
     </row>
     <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B911">
         <v>7</v>
@@ -10670,7 +10677,7 @@
     </row>
     <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B912">
         <v>7</v>
@@ -10678,7 +10685,7 @@
     </row>
     <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="B913">
         <v>7</v>
@@ -10686,7 +10693,7 @@
     </row>
     <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B914">
         <v>7</v>
@@ -10694,7 +10701,7 @@
     </row>
     <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B915">
         <v>7</v>
@@ -10702,7 +10709,7 @@
     </row>
     <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>817</v>
+        <v>1001</v>
       </c>
       <c r="B916">
         <v>7</v>
@@ -10710,7 +10717,7 @@
     </row>
     <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B917">
         <v>7</v>
@@ -10718,7 +10725,7 @@
     </row>
     <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B918">
         <v>7</v>
@@ -10726,7 +10733,7 @@
     </row>
     <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B919">
         <v>7</v>
@@ -10734,7 +10741,7 @@
     </row>
     <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B920">
         <v>7</v>
@@ -10742,7 +10749,7 @@
     </row>
     <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B921">
         <v>7</v>
@@ -10750,7 +10757,7 @@
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B922">
         <v>7</v>
@@ -10758,7 +10765,7 @@
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="B923">
         <v>7</v>
@@ -10766,7 +10773,7 @@
     </row>
     <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="B924">
         <v>7</v>
@@ -10774,7 +10781,7 @@
     </row>
     <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="B925">
         <v>7</v>
@@ -10782,7 +10789,7 @@
     </row>
     <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="B926">
         <v>7</v>
@@ -10790,7 +10797,7 @@
     </row>
     <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="B927">
         <v>7</v>
@@ -10798,7 +10805,7 @@
     </row>
     <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B928">
         <v>7</v>
@@ -10806,7 +10813,7 @@
     </row>
     <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B929">
         <v>7</v>
@@ -10814,7 +10821,7 @@
     </row>
     <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
       <c r="B930">
         <v>6</v>
@@ -10822,7 +10829,7 @@
     </row>
     <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="B931">
         <v>6</v>
@@ -10830,7 +10837,7 @@
     </row>
     <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="B932">
         <v>6</v>
@@ -10838,7 +10845,7 @@
     </row>
     <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="B933">
         <v>6</v>
@@ -10846,7 +10853,7 @@
     </row>
     <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="B934">
         <v>6</v>
@@ -10854,7 +10861,7 @@
     </row>
     <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B935">
         <v>6</v>
@@ -10862,7 +10869,7 @@
     </row>
     <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="B936">
         <v>6</v>
@@ -10870,7 +10877,7 @@
     </row>
     <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="B937">
         <v>6</v>
@@ -10878,7 +10885,7 @@
     </row>
     <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="B938">
         <v>6</v>
@@ -10886,7 +10893,7 @@
     </row>
     <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B939">
         <v>6</v>
@@ -10894,7 +10901,7 @@
     </row>
     <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B940">
         <v>6</v>
@@ -10902,7 +10909,7 @@
     </row>
     <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B941">
         <v>6</v>
@@ -10910,7 +10917,7 @@
     </row>
     <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B942">
         <v>6</v>
@@ -10918,7 +10925,7 @@
     </row>
     <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B943">
         <v>6</v>
@@ -10926,7 +10933,7 @@
     </row>
     <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B944">
         <v>6</v>
@@ -10934,7 +10941,7 @@
     </row>
     <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="B945">
         <v>6</v>
@@ -10942,7 +10949,7 @@
     </row>
     <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="B946">
         <v>6</v>
@@ -10950,7 +10957,7 @@
     </row>
     <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B947">
         <v>6</v>
@@ -10958,7 +10965,7 @@
     </row>
     <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="B948">
         <v>6</v>
@@ -10966,7 +10973,7 @@
     </row>
     <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="B949">
         <v>6</v>
@@ -10974,7 +10981,7 @@
     </row>
     <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="B950">
         <v>6</v>
@@ -10982,7 +10989,7 @@
     </row>
     <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="B951">
         <v>6</v>
@@ -10990,7 +10997,7 @@
     </row>
     <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="B952">
         <v>6</v>
@@ -10998,7 +11005,7 @@
     </row>
     <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="B953">
         <v>6</v>
@@ -11006,7 +11013,7 @@
     </row>
     <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="B954">
         <v>6</v>
@@ -11014,7 +11021,7 @@
     </row>
     <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="B955">
         <v>6</v>
@@ -11022,7 +11029,7 @@
     </row>
     <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="B956">
         <v>6</v>
@@ -11030,7 +11037,7 @@
     </row>
     <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="B957">
         <v>6</v>
@@ -11038,7 +11045,7 @@
     </row>
     <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="B958">
         <v>6</v>
@@ -11046,7 +11053,7 @@
     </row>
     <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="B959">
         <v>6</v>
@@ -11054,7 +11061,7 @@
     </row>
     <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="B960">
         <v>6</v>
@@ -11062,7 +11069,7 @@
     </row>
     <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="B961">
         <v>6</v>
@@ -11070,7 +11077,7 @@
     </row>
     <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="B962">
         <v>6</v>
@@ -11078,7 +11085,7 @@
     </row>
     <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="B963">
         <v>6</v>
@@ -11086,7 +11093,7 @@
     </row>
     <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="B964">
         <v>6</v>
@@ -11094,7 +11101,7 @@
     </row>
     <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="B965">
         <v>6</v>
@@ -11102,7 +11109,7 @@
     </row>
     <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="B966">
         <v>6</v>
@@ -11110,7 +11117,7 @@
     </row>
     <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="B967">
         <v>6</v>
@@ -11118,7 +11125,7 @@
     </row>
     <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="B968">
         <v>6</v>
@@ -11126,7 +11133,7 @@
     </row>
     <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B969">
         <v>6</v>
@@ -11134,7 +11141,7 @@
     </row>
     <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="B970">
         <v>6</v>
@@ -11142,7 +11149,7 @@
     </row>
     <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="B971">
         <v>6</v>
@@ -11150,7 +11157,7 @@
     </row>
     <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="B972">
         <v>6</v>
@@ -11158,7 +11165,7 @@
     </row>
     <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="B973">
         <v>6</v>
@@ -11166,7 +11173,7 @@
     </row>
     <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B974">
         <v>6</v>
@@ -11174,7 +11181,7 @@
     </row>
     <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="B975">
         <v>6</v>
@@ -11182,7 +11189,7 @@
     </row>
     <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="B976">
         <v>6</v>
@@ -11190,7 +11197,7 @@
     </row>
     <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="B977">
         <v>6</v>
@@ -11198,7 +11205,7 @@
     </row>
     <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="B978">
         <v>6</v>
@@ -11206,7 +11213,7 @@
     </row>
     <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="B979">
         <v>6</v>
@@ -11214,7 +11221,7 @@
     </row>
     <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="B980">
         <v>6</v>
@@ -11222,7 +11229,7 @@
     </row>
     <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="B981">
         <v>6</v>
@@ -11230,7 +11237,7 @@
     </row>
     <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>876</v>
+        <v>869</v>
       </c>
       <c r="B982">
         <v>6</v>
@@ -11238,7 +11245,7 @@
     </row>
     <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>877</v>
+        <v>870</v>
       </c>
       <c r="B983">
         <v>6</v>
@@ -11246,7 +11253,7 @@
     </row>
     <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>878</v>
+        <v>871</v>
       </c>
       <c r="B984">
         <v>6</v>
@@ -11254,7 +11261,7 @@
     </row>
     <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="B985">
         <v>6</v>
@@ -11262,7 +11269,7 @@
     </row>
     <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>880</v>
+        <v>873</v>
       </c>
       <c r="B986">
         <v>6</v>
@@ -11270,7 +11277,7 @@
     </row>
     <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>881</v>
+        <v>874</v>
       </c>
       <c r="B987">
         <v>6</v>
@@ -11278,7 +11285,7 @@
     </row>
     <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="B988">
         <v>6</v>
@@ -11286,7 +11293,7 @@
     </row>
     <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>883</v>
+        <v>876</v>
       </c>
       <c r="B989">
         <v>6</v>
@@ -11294,7 +11301,7 @@
     </row>
     <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>884</v>
+        <v>877</v>
       </c>
       <c r="B990">
         <v>6</v>
@@ -11302,7 +11309,7 @@
     </row>
     <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="B991">
         <v>6</v>
@@ -11310,7 +11317,7 @@
     </row>
     <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>886</v>
+        <v>879</v>
       </c>
       <c r="B992">
         <v>6</v>
@@ -11318,7 +11325,7 @@
     </row>
     <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="B993">
         <v>6</v>
@@ -11326,7 +11333,7 @@
     </row>
     <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>888</v>
+        <v>881</v>
       </c>
       <c r="B994">
         <v>6</v>
@@ -11334,7 +11341,7 @@
     </row>
     <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>889</v>
+        <v>882</v>
       </c>
       <c r="B995">
         <v>6</v>
@@ -11342,7 +11349,7 @@
     </row>
     <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="B996">
         <v>6</v>
@@ -11350,7 +11357,7 @@
     </row>
     <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="B997">
         <v>6</v>
@@ -11358,7 +11365,7 @@
     </row>
     <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="B998">
         <v>6</v>
@@ -11366,7 +11373,7 @@
     </row>
     <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="B999">
         <v>6</v>
@@ -11374,7 +11381,7 @@
     </row>
     <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="B1000">
         <v>6</v>
@@ -11382,7 +11389,7 @@
     </row>
     <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="B1001">
         <v>6</v>
